--- a/wingate-test/windgate-on-relite-trainer.xlsx
+++ b/wingate-test/windgate-on-relite-trainer.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="3100" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="6640" yWindow="3060" windowWidth="29460" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="data_1" localSheetId="0">Sheet2!$A$2:$F$22</definedName>
+    <definedName name="data_1" localSheetId="0">Sheet2!$A$2:$F$23</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +36,7 @@
     </textPr>
   </connection>
   <connection id="2" name="data.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:marcus:dev:trenerska-akademia-seminarna-praca:wingate-test:data.csv" thousands=" " delimiter=",">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:marcus:Documents:bike:Trenersky Kurz:trenerska-akademia-seminarna-praca:wingate-test:data.csv" thousands=" " delimiter=",">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -51,7 +51,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+  <si>
+    <t>Time</t>
+  </si>
   <si>
     <t>Distance</t>
   </si>
@@ -488,7 +491,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.062216952994512"/>
+          <c:y val="0.0862068965517241"/>
+          <c:w val="0.869234570110554"/>
+          <c:h val="0.794712772972344"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -518,10 +531,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$3:$A$22</c:f>
+              <c:f>Sheet2!$A$3:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -581,16 +594,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$3:$D$22</c:f>
+              <c:f>Sheet2!$D$3:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>531.0</c:v>
                 </c:pt>
@@ -649,6 +665,9 @@
                   <c:v>285.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>119.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -698,10 +717,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$3:$A$22</c:f>
+              <c:f>Sheet2!$A$3:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -761,16 +780,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$3:$F$22</c:f>
+              <c:f>Sheet2!$F$3:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>66.0</c:v>
                 </c:pt>
@@ -829,6 +851,9 @@
                   <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>75.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -856,6 +881,21 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -871,10 +911,48 @@
         <c:axId val="-2061071496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1300.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00631313131313131"/>
+              <c:y val="0.0414450564369109"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr rot="0" vert="horz"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -898,6 +976,42 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cadence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.922585500676052"/>
+              <c:y val="0.021740622939374"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr rot="0" vert="horz"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr>
+                  <a:solidFill>
+                    <a:srgbClr val="FFE964"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -932,11 +1046,6 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -953,15 +1062,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1310,20 +1419,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.1640625" bestFit="1" customWidth="1"/>
@@ -1333,7 +1442,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1341,7 +1450,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="H1" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -1350,30 +1459,32 @@
       <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3">
         <v>64</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -1399,14 +1510,14 @@
         <v>66</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="13">
         <f>MAX(A:A)+1</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
@@ -1432,14 +1543,14 @@
         <v>66</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="13">
         <f>MAX(B:B)</f>
         <v>0.193</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -1465,24 +1576,24 @@
         <v>35</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" s="14">
-        <f>MAX(D3:D22)</f>
+        <f>MAX(D3:D23)</f>
         <v>1002</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L5" s="14">
         <f>I5/I2</f>
         <v>15.65625</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1505,24 +1616,24 @@
         <v>113</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" s="13">
-        <f>SUM(D3:D22)/I3</f>
-        <v>723.35</v>
+        <f>SUM(D3:D23)/I3</f>
+        <v>694.57142857142856</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L6" s="14">
         <f>I6/I2</f>
-        <v>11.30234375</v>
+        <v>10.852678571428571</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1545,24 +1656,24 @@
         <v>113</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="14">
         <f>100*(I5-I9)/I5</f>
         <v>88.123752495009981</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" s="13">
         <f>(I5-I9)/(I10-I11)</f>
         <v>63.071428571428569</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1605,10 +1716,10 @@
         <v>170</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" s="9">
-        <f>MIN(D3:D22)</f>
+        <f>MIN(D3:D23)</f>
         <v>119</v>
       </c>
     </row>
@@ -1632,14 +1743,14 @@
         <v>160</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="8">
+        <f>MATCH(MIN(D3:D23),D3:D23,0)</f>
         <v>20</v>
       </c>
-      <c r="I10" s="8">
-        <f>MATCH(MIN(D3:D22),D3:D22,0)</f>
-        <v>20</v>
-      </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1662,14 +1773,14 @@
         <v>160</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I11" s="1">
-        <f>MATCH(MAX(D3:D22),D3:D22,0)</f>
+        <f>MATCH(MAX(D3:D23),D3:D23,0)</f>
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1872,7 +1983,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16" customHeight="1">
+    <row r="22" spans="1:6">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1889,6 +2000,26 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.193</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10.249863</v>
+      </c>
+      <c r="D23" s="5">
+        <v>119</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>75</v>
       </c>
     </row>

--- a/wingate-test/windgate-on-relite-trainer.xlsx
+++ b/wingate-test/windgate-on-relite-trainer.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6640" yWindow="3060" windowWidth="29460" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="6640" yWindow="3060" windowWidth="35660" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Wingate Test (modified)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="data_1" localSheetId="0">Sheet2!$A$2:$F$23</definedName>
+    <definedName name="data_1" localSheetId="1">Sheet3!$A$2:$F$23</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -51,10 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
-  <si>
-    <t>Time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Distance</t>
   </si>
@@ -107,9 +105,6 @@
     <t>Body Weigh</t>
   </si>
   <si>
-    <t>Max in Interval</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -122,6 +117,30 @@
     <t>s</t>
   </si>
   <si>
+    <t>Time:</t>
+  </si>
+  <si>
+    <t>Distance:</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>24.1.2016</t>
+  </si>
+  <si>
+    <t>Trainer Resistance/Mode</t>
+  </si>
+  <si>
+    <t>Level Mode</t>
+  </si>
+  <si>
+    <t>Rider/Bike</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -132,27 +151,12 @@
       </rPr>
       <t>Imported Data</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> from elite myETraining Export (elite trainer, Level Mode 16)</t>
-    </r>
   </si>
   <si>
-    <t>Time:</t>
+    <t>Peak Power Time</t>
   </si>
   <si>
-    <t>Distance:</t>
-  </si>
-  <si>
-    <t>km</t>
+    <t>Experimental Wingate test using home trainer (Elite Qubo Digital B+)</t>
   </si>
 </sst>
 </file>
@@ -196,14 +200,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="24"/>
       <color theme="1"/>
@@ -215,6 +211,13 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -238,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -261,9 +264,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -357,22 +448,26 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="153">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -418,6 +513,37 @@
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -463,6 +589,37 @@
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,49 +646,46 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.062216952994512"/>
-          <c:y val="0.0862068965517241"/>
-          <c:w val="0.869234570110554"/>
+          <c:x val="0.0559038216813807"/>
+          <c:y val="0.0862068241469816"/>
+          <c:w val="0.907113357989342"/>
           <c:h val="0.794712772972344"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Power</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Min</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
+            <a:ln w="47625">
+              <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
+          <c:dLbls>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$3:$A$23</c:f>
+              <c:f>Sheet3!$A$3:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -600,79 +754,391 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$3:$D$23</c:f>
+              <c:f>Sheet3!$K$3:$K$43</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>531.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>795.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>922.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>979.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>979.0</c:v>
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$J$3:$J$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1002.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>981.0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>948.0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>948.0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>948.0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>860.0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>790.0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>651.0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>589.0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>589.0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>554.0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>525.0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>472.0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>285.0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>119.0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>119.0</c:v>
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -683,41 +1149,39 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2064616680"/>
+        <c:axId val="-2046625080"/>
         <c:axId val="-2061071496"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$F$2</c:f>
+              <c:f>Sheet3!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cadence</c:v>
+                  <c:v>Power</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="12700" cmpd="sng">
               <a:solidFill>
-                <a:srgbClr val="FFE964"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$3:$A$23</c:f>
+              <c:f>Sheet3!$A$3:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -786,80 +1250,702 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$3:$F$23</c:f>
+              <c:f>Sheet3!$D$3:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>531.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>795.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>922.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>979.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>979.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>981.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>948.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>948.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>948.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>860.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>790.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>651.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>589.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>589.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>554.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>525.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>472.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>285.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>119.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Mean Power</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$3:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>66.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>164.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>170.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>160.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>160.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>160.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>87.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>75.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>75.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$G$3:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>694.5714285714286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Peak Power</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$H$3:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Min Power</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$I$3:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>119.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -869,27 +1955,208 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2062629528"/>
-        <c:axId val="-2116948104"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2064616680"/>
+        <c:axId val="-2046625080"/>
+        <c:axId val="-2061071496"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cadence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFE964"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$F$3:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2046162872"/>
+        <c:axId val="-2046123384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2046625080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$2</c:f>
+              <c:f>Sheet3!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -902,11 +2169,10 @@
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="-2061071496"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
+        <c:minorUnit val="0.2"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="-2061071496"/>
         <c:scaling>
@@ -916,11 +2182,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$2</c:f>
+              <c:f>Sheet3!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -933,8 +2208,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00631313131313131"/>
-              <c:y val="0.0414450564369109"/>
+              <c:x val="0.0321116786077416"/>
+              <c:y val="0.0146534782325763"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -945,66 +2220,7 @@
               <a:pPr>
                 <a:defRPr>
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="38100" cmpd="sng">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="-2064616680"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2116948104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="250.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cadence</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.922585500676052"/>
-              <c:y val="0.021740622939374"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:txPr>
-            <a:bodyPr rot="0" vert="horz"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr>
-                  <a:solidFill>
-                    <a:srgbClr val="FFE964"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                 </a:defRPr>
               </a:pPr>
@@ -1017,43 +2233,113 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="38100" cmpd="sng">
+          <a:ln w="19050" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="-2046625080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2046123384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cadence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.933983136304147"/>
+              <c:y val="0.0176381784393739"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr rot="0" vert="horz"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="19050" cmpd="sng">
             <a:solidFill>
               <a:srgbClr val="FFE964"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2062629528"/>
+        <c:crossAx val="-2046162872"/>
         <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:catAx>
-        <c:axId val="-2062629528"/>
+      <c:valAx>
+        <c:axId val="-2046162872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="t"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116948104"/>
-        <c:crosses val="max"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossAx val="-2046123384"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-4" verticalDpi="-4"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1062,16 +2348,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1419,10 +2705,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>64</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9">
+        <f>MAX(Sheet3!A:A)+1</f>
+        <v>21</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9">
+        <f>MAX(Sheet3!B:B)</f>
+        <v>0.193</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10">
+        <f>MAX(Sheet3!D3:D23)</f>
+        <v>1002</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="13">
+        <f>B7/B4</f>
+        <v>15.65625</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10">
+        <f>SUM(Sheet3!D3:D23)/B5</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="13">
+        <f>B8/B4</f>
+        <v>10.852678571428571</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10">
+        <f>100*(B7-B11)/B7</f>
+        <v>88.123752495009981</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="13">
+        <f>(B7-B11)/(B12-B13)</f>
+        <v>63.071428571428569</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="14">
+        <f>MIN(Sheet3!D3:D23)</f>
+        <v>119</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="14">
+        <f>MATCH(MIN(Sheet3!D3:D23),Sheet3!D3:D23,0)</f>
+        <v>20</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="14">
+        <f>MATCH(MAX(Sheet3!D3:D23),Sheet3!D3:D23,0)</f>
+        <v>6</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="70" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1433,600 +2928,1325 @@
     <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
-      <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="H1" s="11" t="s">
+    <row r="1" spans="1:11" ht="23">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>28.198633999999998</v>
+      </c>
+      <c r="D3" s="4">
+        <v>531</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>66</v>
+      </c>
+      <c r="G3">
+        <f>IF(ISNUMBER(A3),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H3">
+        <f>IF(ISNUMBER(B3),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I3">
+        <f>IF(ISNUMBER(B3),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J3" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D3,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K3" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D3,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>38.006127999999997</v>
+      </c>
+      <c r="D4" s="4">
+        <v>795</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>66</v>
+      </c>
+      <c r="G4">
+        <f>IF(ISNUMBER(A4),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H4">
+        <f>IF(ISNUMBER(B4),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I4">
+        <f>IF(ISNUMBER(B4),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J4" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D4,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K4" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D4,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44.645400000000002</v>
+      </c>
+      <c r="D5" s="4">
+        <v>922</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <f>IF(ISNUMBER(A5),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H5">
+        <f>IF(ISNUMBER(B5),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I5">
+        <f>IF(ISNUMBER(B5),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J5" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D5,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K5" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D5,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>48.341808999999998</v>
+      </c>
+      <c r="D6" s="4">
+        <v>979</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>113</v>
+      </c>
+      <c r="G6">
+        <f>IF(ISNUMBER(A6),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H6">
+        <f>IF(ISNUMBER(B6),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I6">
+        <f>IF(ISNUMBER(B6),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J6" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D6,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K6" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D6,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>48.341808999999998</v>
+      </c>
+      <c r="D7" s="4">
+        <v>979</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>113</v>
+      </c>
+      <c r="G7">
+        <f>IF(ISNUMBER(A7),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H7">
+        <f>IF(ISNUMBER(B7),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I7">
+        <f>IF(ISNUMBER(B7),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J7" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D7,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K7" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D7,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>49.807118000000003</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1002</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>164</v>
+      </c>
+      <c r="G8">
+        <f>IF(ISNUMBER(A8),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H8">
+        <f>IF(ISNUMBER(B8),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I8">
+        <f>IF(ISNUMBER(B8),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J8">
+        <f>IF('Wingate Test (modified)'!$B$7=D8,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="K8" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D8,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>48.467185000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>981</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>170</v>
+      </c>
+      <c r="G9">
+        <f>IF(ISNUMBER(A9),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H9">
+        <f>IF(ISNUMBER(B9),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I9">
+        <f>IF(ISNUMBER(B9),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J9" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D9,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K9" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D9,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>46.336238000000002</v>
+      </c>
+      <c r="D10" s="4">
+        <v>948</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>160</v>
+      </c>
+      <c r="G10">
+        <f>IF(ISNUMBER(A10),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H10">
+        <f>IF(ISNUMBER(B10),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I10">
+        <f>IF(ISNUMBER(B10),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J10" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D10,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K10" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D10,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>46.336238000000002</v>
+      </c>
+      <c r="D11" s="4">
+        <v>948</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>160</v>
+      </c>
+      <c r="G11">
+        <f>IF(ISNUMBER(A11),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H11">
+        <f>IF(ISNUMBER(B11),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I11">
+        <f>IF(ISNUMBER(B11),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J11" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D11,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K11" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D11,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>46.336238000000002</v>
+      </c>
+      <c r="D12" s="4">
+        <v>948</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>160</v>
+      </c>
+      <c r="G12">
+        <f>IF(ISNUMBER(A12),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H12">
+        <f>IF(ISNUMBER(B12),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I12">
+        <f>IF(ISNUMBER(B12),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J12" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D12,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K12" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D12,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="C13" s="2">
+        <v>40.690587000000001</v>
+      </c>
+      <c r="D13" s="4">
+        <v>860</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>93</v>
+      </c>
+      <c r="G13">
+        <f>IF(ISNUMBER(A13),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H13">
+        <f>IF(ISNUMBER(B13),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I13">
+        <f>IF(ISNUMBER(B13),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J13" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D13,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K13" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D13,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.129</v>
+      </c>
+      <c r="C14" s="2">
+        <v>37.832583999999997</v>
+      </c>
+      <c r="D14" s="4">
+        <v>790</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>73</v>
+      </c>
+      <c r="G14">
+        <f>IF(ISNUMBER(A14),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H14">
+        <f>IF(ISNUMBER(B14),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I14">
+        <f>IF(ISNUMBER(B14),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J14" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D14,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K14" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D14,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="C15" s="2">
+        <v>32.799809000000003</v>
+      </c>
+      <c r="D15" s="4">
+        <v>651</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>94</v>
+      </c>
+      <c r="G15">
+        <f>IF(ISNUMBER(A15),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H15">
+        <f>IF(ISNUMBER(B15),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I15">
+        <f>IF(ISNUMBER(B15),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J15" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D15,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K15" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D15,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.155</v>
+      </c>
+      <c r="C16" s="2">
+        <v>30.522653999999999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>589</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>87</v>
+      </c>
+      <c r="G16">
+        <f>IF(ISNUMBER(A16),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H16">
+        <f>IF(ISNUMBER(B16),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I16">
+        <f>IF(ISNUMBER(B16),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J16" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D16,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K16" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D16,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.155</v>
+      </c>
+      <c r="C17" s="2">
+        <v>30.522653999999999</v>
+      </c>
+      <c r="D17" s="4">
+        <v>589</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>87</v>
+      </c>
+      <c r="G17">
+        <f>IF(ISNUMBER(A17),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H17">
+        <f>IF(ISNUMBER(B17),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I17">
+        <f>IF(ISNUMBER(B17),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J17" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D17,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K17" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D17,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="C18" s="2">
+        <v>29.155386</v>
+      </c>
+      <c r="D18" s="4">
+        <v>554</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>83</v>
+      </c>
+      <c r="G18">
+        <f>IF(ISNUMBER(A18),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H18">
+        <f>IF(ISNUMBER(B18),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I18">
+        <f>IF(ISNUMBER(B18),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J18" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D18,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K18" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D18,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C19" s="2">
+        <v>27.968519000000001</v>
+      </c>
+      <c r="D19" s="4">
+        <v>525</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>81</v>
+      </c>
+      <c r="G19">
+        <f>IF(ISNUMBER(A19),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H19">
+        <f>IF(ISNUMBER(B19),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I19">
+        <f>IF(ISNUMBER(B19),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J19" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D19,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K19" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D19,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.185</v>
+      </c>
+      <c r="C20" s="2">
+        <v>25.806488999999999</v>
+      </c>
+      <c r="D20" s="4">
+        <v>472</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>75</v>
+      </c>
+      <c r="G20">
+        <f>IF(ISNUMBER(A20),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H20">
+        <f>IF(ISNUMBER(B20),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I20">
+        <f>IF(ISNUMBER(B20),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J20" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D20,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K20" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D20,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="C21" s="2">
+        <v>17.910813999999998</v>
+      </c>
+      <c r="D21" s="4">
+        <v>285</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <f>IF(ISNUMBER(A21),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H21">
+        <f>IF(ISNUMBER(B21),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I21">
+        <f>IF(ISNUMBER(B21),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J21" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D21,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K21" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D21,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
+      <c r="B22" s="2">
+        <v>0.193</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10.249863</v>
+      </c>
+      <c r="D22" s="4">
+        <v>119</v>
+      </c>
+      <c r="E22" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3">
-        <v>64</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3">
+      <c r="F22" s="2">
+        <v>75</v>
+      </c>
+      <c r="G22">
+        <f>IF(ISNUMBER(A22),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H22">
+        <f>IF(ISNUMBER(B22),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>1002</v>
+      </c>
+      <c r="I22">
+        <f>IF(ISNUMBER(B22),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+      <c r="J22" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D22,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K22">
+        <f>IF('Wingate Test (modified)'!$B$11=D22,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.193</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10.249863</v>
+      </c>
+      <c r="D23" s="4">
+        <v>119</v>
+      </c>
+      <c r="E23" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>28.198633999999998</v>
-      </c>
-      <c r="D3" s="5">
-        <v>531</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>66</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="13">
-        <f>MAX(A:A)+1</f>
-        <v>21</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>38.006127999999997</v>
-      </c>
-      <c r="D4" s="5">
-        <v>795</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>66</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="13">
-        <f>MAX(B:B)</f>
-        <v>0.193</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="C5" s="3">
-        <v>44.645400000000002</v>
-      </c>
-      <c r="D5" s="5">
-        <v>922</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>35</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="14">
-        <f>MAX(D3:D23)</f>
+      <c r="F23" s="2">
+        <v>75</v>
+      </c>
+      <c r="G23">
+        <f>IF(ISNUMBER(A23),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>694.57142857142856</v>
+      </c>
+      <c r="H23">
+        <f>IF(ISNUMBER(B23),'Wingate Test (modified)'!$B$7,NA())</f>
         <v>1002</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="14">
-        <f>I5/I2</f>
-        <v>15.65625</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>48.341808999999998</v>
-      </c>
-      <c r="D6" s="5">
-        <v>979</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>113</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="13">
-        <f>SUM(D3:D23)/I3</f>
-        <v>694.57142857142856</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="14">
-        <f>I6/I2</f>
-        <v>10.852678571428571</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>48.341808999999998</v>
-      </c>
-      <c r="D7" s="5">
-        <v>979</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>113</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="14">
-        <f>100*(I5-I9)/I5</f>
-        <v>88.123752495009981</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="13">
-        <f>(I5-I9)/(I10-I11)</f>
-        <v>63.071428571428569</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>49.807118000000003</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1002</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>48.467185000000001</v>
-      </c>
-      <c r="D9" s="5">
-        <v>981</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>170</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="9">
-        <f>MIN(D3:D23)</f>
+      <c r="I23">
+        <f>IF(ISNUMBER(B23),'Wingate Test (modified)'!$B$11,NA())</f>
         <v>119</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>46.336238000000002</v>
-      </c>
-      <c r="D10" s="5">
-        <v>948</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>160</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="8">
-        <f>MATCH(MIN(D3:D23),D3:D23,0)</f>
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>46.336238000000002</v>
-      </c>
-      <c r="D11" s="5">
-        <v>948</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>160</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1">
-        <f>MATCH(MAX(D3:D23),D3:D23,0)</f>
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>46.336238000000002</v>
-      </c>
-      <c r="D12" s="5">
-        <v>948</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="C13" s="3">
-        <v>40.690587000000001</v>
-      </c>
-      <c r="D13" s="5">
-        <v>860</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.129</v>
-      </c>
-      <c r="C14" s="3">
-        <v>37.832583999999997</v>
-      </c>
-      <c r="D14" s="5">
-        <v>790</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="C15" s="3">
-        <v>32.799809000000003</v>
-      </c>
-      <c r="D15" s="5">
-        <v>651</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.155</v>
-      </c>
-      <c r="C16" s="3">
-        <v>30.522653999999999</v>
-      </c>
-      <c r="D16" s="5">
-        <v>589</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.155</v>
-      </c>
-      <c r="C17" s="3">
-        <v>30.522653999999999</v>
-      </c>
-      <c r="D17" s="5">
-        <v>589</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="C18" s="3">
-        <v>29.155386</v>
-      </c>
-      <c r="D18" s="5">
-        <v>554</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="C19" s="3">
-        <v>27.968519000000001</v>
-      </c>
-      <c r="D19" s="5">
-        <v>525</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.185</v>
-      </c>
-      <c r="C20" s="3">
-        <v>25.806488999999999</v>
-      </c>
-      <c r="D20" s="5">
-        <v>472</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.19</v>
-      </c>
-      <c r="C21" s="3">
-        <v>17.910813999999998</v>
-      </c>
-      <c r="D21" s="5">
-        <v>285</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.193</v>
-      </c>
-      <c r="C22" s="3">
-        <v>10.249863</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="J23" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D23,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K23">
+        <f>IF('Wingate Test (modified)'!$B$11=D23,'Wingate Test (modified)'!$B$11,NA())</f>
         <v>119</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.193</v>
-      </c>
-      <c r="C23" s="3">
-        <v>10.249863</v>
-      </c>
-      <c r="D23" s="5">
-        <v>119</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>75</v>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="G24" t="e">
+        <f>IF(ISNUMBER(A24),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H24" t="e">
+        <f>IF(ISNUMBER(B24),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I24" t="e">
+        <f>IF(ISNUMBER(B24),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J24" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D24,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K24" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D24,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="G25" t="e">
+        <f>IF(ISNUMBER(A25),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H25" t="e">
+        <f>IF(ISNUMBER(B25),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I25" t="e">
+        <f>IF(ISNUMBER(B25),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J25" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D25,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K25" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D25,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="G26" t="e">
+        <f>IF(ISNUMBER(A26),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H26" t="e">
+        <f>IF(ISNUMBER(B26),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I26" t="e">
+        <f>IF(ISNUMBER(B26),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J26" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D26,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K26" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D26,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="G27" t="e">
+        <f>IF(ISNUMBER(A27),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H27" t="e">
+        <f>IF(ISNUMBER(B27),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I27" t="e">
+        <f>IF(ISNUMBER(B27),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J27" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D27,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K27" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D27,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="G28" t="e">
+        <f>IF(ISNUMBER(A28),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H28" t="e">
+        <f>IF(ISNUMBER(B28),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I28" t="e">
+        <f>IF(ISNUMBER(B28),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J28" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D28,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K28" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D28,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="G29" t="e">
+        <f>IF(ISNUMBER(A29),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H29" t="e">
+        <f>IF(ISNUMBER(B29),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I29" t="e">
+        <f>IF(ISNUMBER(B29),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J29" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D29,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K29" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D29,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="G30" t="e">
+        <f>IF(ISNUMBER(A30),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H30" t="e">
+        <f>IF(ISNUMBER(B30),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I30" t="e">
+        <f>IF(ISNUMBER(B30),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J30" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D30,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K30" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D30,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="G31" t="e">
+        <f>IF(ISNUMBER(A31),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H31" t="e">
+        <f>IF(ISNUMBER(B31),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I31" t="e">
+        <f>IF(ISNUMBER(B31),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J31" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D31,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K31" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D31,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="G32" t="e">
+        <f>IF(ISNUMBER(A32),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H32" t="e">
+        <f>IF(ISNUMBER(B32),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I32" t="e">
+        <f>IF(ISNUMBER(B32),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J32" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D32,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K32" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D32,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="7:11">
+      <c r="G33" t="e">
+        <f>IF(ISNUMBER(A33),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H33" t="e">
+        <f>IF(ISNUMBER(B33),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I33" t="e">
+        <f>IF(ISNUMBER(B33),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J33" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D33,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K33" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D33,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="7:11">
+      <c r="G34" t="e">
+        <f>IF(ISNUMBER(A34),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H34" t="e">
+        <f>IF(ISNUMBER(B34),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I34" t="e">
+        <f>IF(ISNUMBER(B34),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J34" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D34,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K34" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D34,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="7:11">
+      <c r="G35" t="e">
+        <f>IF(ISNUMBER(A35),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H35" t="e">
+        <f>IF(ISNUMBER(B35),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I35" t="e">
+        <f>IF(ISNUMBER(B35),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J35" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D35,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K35" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D35,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="7:11">
+      <c r="G36" t="e">
+        <f>IF(ISNUMBER(A36),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H36" t="e">
+        <f>IF(ISNUMBER(B36),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I36" t="e">
+        <f>IF(ISNUMBER(B36),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J36" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D36,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K36" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D36,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="7:11">
+      <c r="G37" t="e">
+        <f>IF(ISNUMBER(A37),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H37" t="e">
+        <f>IF(ISNUMBER(B37),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I37" t="e">
+        <f>IF(ISNUMBER(B37),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J37" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D37,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K37" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D37,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="7:11">
+      <c r="G38" t="e">
+        <f>IF(ISNUMBER(A38),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H38" t="e">
+        <f>IF(ISNUMBER(B38),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I38" t="e">
+        <f>IF(ISNUMBER(B38),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J38" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D38,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K38" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D38,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="7:11">
+      <c r="G39" t="e">
+        <f>IF(ISNUMBER(A39),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H39" t="e">
+        <f>IF(ISNUMBER(B39),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I39" t="e">
+        <f>IF(ISNUMBER(B39),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J39" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D39,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K39" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D39,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="7:11">
+      <c r="G40" t="e">
+        <f>IF(ISNUMBER(A40),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H40" t="e">
+        <f>IF(ISNUMBER(B40),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I40" t="e">
+        <f>IF(ISNUMBER(B40),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J40" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D40,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K40" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D40,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="7:11">
+      <c r="G41" t="e">
+        <f>IF(ISNUMBER(A41),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H41" t="e">
+        <f>IF(ISNUMBER(B41),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I41" t="e">
+        <f>IF(ISNUMBER(B41),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J41" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D41,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K41" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D41,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="7:11">
+      <c r="G42" t="e">
+        <f>IF(ISNUMBER(A42),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H42" t="e">
+        <f>IF(ISNUMBER(B42),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I42" t="e">
+        <f>IF(ISNUMBER(B42),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J42" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D42,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K42" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D42,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="7:11">
+      <c r="G43" t="e">
+        <f>IF(ISNUMBER(A43),'Wingate Test (modified)'!$B$8,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H43" t="e">
+        <f>IF(ISNUMBER(B43),'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I43" t="e">
+        <f>IF(ISNUMBER(B43),'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J43" t="e">
+        <f>IF('Wingate Test (modified)'!$B$7=D43,'Wingate Test (modified)'!$B$7,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K43" t="e">
+        <f>IF('Wingate Test (modified)'!$B$11=D43,'Wingate Test (modified)'!$B$11,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="7:11">
+      <c r="G44" t="str">
+        <f>IF(ISNUMBER(A44),'Wingate Test (modified)'!B49,"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
